--- a/xlsx/咖啡_intext.xlsx
+++ b/xlsx/咖啡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t>咖啡</t>
   </si>
@@ -29,13 +29,13 @@
     <t>咖啡树</t>
   </si>
   <si>
-    <t>政策_政策_美國_咖啡</t>
+    <t>政策_政策_美国_咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A1%E5%93%86%E9%86%87</t>
@@ -113,67 +113,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>磷營養</t>
+    <t>磷营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%B1%AC</t>
   </si>
   <si>
-    <t>咖啡屬</t>
+    <t>咖啡属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>飲料</t>
+    <t>饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BD%9C%E7%89%A9</t>
   </si>
   <si>
-    <t>經濟作物</t>
+    <t>经济作物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -293,37 +293,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%83%E7%B8%AE%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>濃縮咖啡</t>
+    <t>浓缩咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%83%E5%A5%87%E8%AB%BE</t>
   </si>
   <si>
-    <t>卡布奇諾</t>
+    <t>卡布奇诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E9%90%B5%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>拿鐵咖啡</t>
+    <t>拿铁咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80</t>
   </si>
   <si>
-    <t>也門</t>
+    <t>也门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%8F%B2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>蘇菲主義</t>
+    <t>苏菲主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>埃塞俄比亞正教會</t>
+    <t>埃塞俄比亚正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%88%A9%E5%B0%BC%E5%85%8B%E4%BA%8C%E4%B8%96</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼帝國</t>
+    <t>鄂图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%BD%97%E8%8E%AB%E4%BA%BA</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%88%AA%E6%B5%B7%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>大航海時代</t>
+    <t>大航海时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -473,31 +473,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E5%85%AB%E4%B8%96</t>
   </si>
   <si>
-    <t>克萊門八世</t>
+    <t>克莱门八世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>荷屬東印度</t>
+    <t>荷属东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%87%8C%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇里南</t>
+    <t>苏里南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E8%A9%B1</t>
   </si>
   <si>
-    <t>福建話</t>
+    <t>福建话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kopitiam</t>
@@ -533,37 +533,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B3%BD%E5%8D%80</t>
   </si>
   <si>
-    <t>三峽區</t>
+    <t>三峡区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%8D%97</t>
   </si>
   <si>
-    <t>雲南</t>
+    <t>云南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%BC%80%E5%9F%A0</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%B3%96%E5%8C%96%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>焦糖化反應</t>
+    <t>焦糖化反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%B3%96</t>
@@ -647,31 +647,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A8%9E%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中樞神經系統</t>
+    <t>中枢神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F</t>
   </si>
   <si>
-    <t>心臟</t>
+    <t>心脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>呼吸系統</t>
+    <t>呼吸系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F</t>
   </si>
   <si>
-    <t>腎臟</t>
+    <t>肾脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%8E%9F%E9%85%B8</t>
   </si>
   <si>
-    <t>綠原酸</t>
+    <t>绿原酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%BE%B7%E5%8F%8D%E5%BA%94</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%81%B0</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5</t>
   </si>
   <si>
-    <t>鐵</t>
+    <t>铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%85%B8%E9%88%89</t>
   </si>
   <si>
-    <t>碳酸鈉</t>
+    <t>碳酸钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%99%8C%E7%97%87%E7%A0%94%E7%A9%B6%E6%9C%BA%E6%9E%84</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/2B%E9%A1%9E%E8%87%B4%E7%99%8C%E7%89%A9</t>
   </si>
   <si>
-    <t>2B類致癌物</t>
+    <t>2B类致癌物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%80%E8%83%B1%E7%99%8C</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E9%85%B8</t>
   </si>
   <si>
-    <t>檸檬酸</t>
+    <t>柠檬酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E9%85%92</t>
@@ -761,37 +761,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%85%B8</t>
   </si>
   <si>
-    <t>蘋果酸</t>
+    <t>苹果酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B1%B1%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>藍山咖啡</t>
+    <t>蓝山咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%BF%83%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>特濃咖啡</t>
+    <t>特浓咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9E%9C%E5%92%96%E5%95%A1</t>
@@ -815,25 +815,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E7%93%9C</t>
@@ -857,31 +857,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E9%9F%8B%E7%89%B9%E5%8D%97%E6%88%88</t>
   </si>
   <si>
-    <t>韋韋特南戈</t>
+    <t>韦韦特南戈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%82%E7%89%B9%E8%98%AD%E6%B9%96</t>
   </si>
   <si>
-    <t>阿蒂特蘭湖</t>
+    <t>阿蒂特兰湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%90%AC</t>
   </si>
   <si>
-    <t>科萬</t>
+    <t>科万</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%B3%B4%E5%93%88%E5%85%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>弗賴哈內斯</t>
+    <t>弗赖哈内斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E7%A7%91%E6%96%AF%E7%9C%81</t>
   </si>
   <si>
-    <t>聖馬科斯省</t>
+    <t>圣马科斯省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>厄瓜多爾</t>
+    <t>厄瓜多尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%B8%95%E6%88%88%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -929,43 +929,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%97%BA%E9%81%94</t>
   </si>
   <si>
-    <t>盧旺達</t>
+    <t>卢旺达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>贊比亞</t>
+    <t>赞比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦桑尼亞</t>
+    <t>坦桑尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
+    <t>喀麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B</t>
   </si>
   <si>
-    <t>津巴布韋</t>
+    <t>津巴布韦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%8A%A0%E9%9B%AA%E8%8F%B2</t>
@@ -1013,9 +1013,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%9D%E9%A6%99%E7%8C%AB%E5%92%96%E5%95%A1</t>
   </si>
   <si>
@@ -1025,21 +1022,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9D%91%E5%92%96%E5%95%A1</t>
   </si>
   <si>
@@ -1049,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B1%B1%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>東山咖啡</t>
+    <t>东山咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>東帝汶</t>
+    <t>东帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B</t>
@@ -1085,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E6%B1%81</t>
   </si>
   <si>
-    <t>檸檬汁</t>
+    <t>柠檬汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E6%B2%B9</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E6%BA%B6%E5%92%96%E5%95%A1</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E7%90%AA%E9%9B%85%E6%9C%B5%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>瑪琪雅朵咖啡</t>
+    <t>玛琪雅朵咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E5%92%96%E5%95%A1</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>愛爾蘭咖啡</t>
+    <t>爱尔兰咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A3%AB%E5%BF%8C</t>
@@ -1181,15 +1172,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%B3%95%E6%8B%89%E6%B2%9B%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>希臘法拉沛咖啡</t>
+    <t>希腊法拉沛咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%83%E5%A5%87%E8%AF%BA</t>
   </si>
   <si>
-    <t>卡布奇诺</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%8D%A1%E5%92%96%E5%95%A1</t>
   </si>
   <si>
@@ -1205,13 +1193,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E5%8C%96</t>
   </si>
   <si>
-    <t>自動化</t>
+    <t>自动化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B7%B4%E5%85%8B</t>
@@ -1235,19 +1223,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%93%E7%BC%A9%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>浓缩咖啡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>公平貿易</t>
+    <t>公平贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E6%A9%9F</t>
   </si>
   <si>
-    <t>咖啡機</t>
+    <t>咖啡机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%BA%97</t>
@@ -1265,19 +1250,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%9B%E9%B4%A6_(%E9%A3%B2%E6%96%99)</t>
   </si>
   <si>
-    <t>鴛鴦 (飲料)</t>
+    <t>鸳鸯 (饮料)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BC%8F%E6%BF%BE%E5%A3%93%E5%A3%BA</t>
   </si>
   <si>
-    <t>法式濾壓壺</t>
+    <t>法式滤压壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%B9%E5%90%B8%E5%BC%8F%E5%92%96%E5%95%A1%E5%A3%BA</t>
   </si>
   <si>
-    <t>虹吸式咖啡壺</t>
+    <t>虹吸式咖啡壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%92%96%E5%95%A1</t>
@@ -1289,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>咖啡經濟學</t>
+    <t>咖啡经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fair_trade_coffee</t>
@@ -1301,13 +1286,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E8%88%87%E5%81%A5%E5%BA%B7</t>
   </si>
   <si>
-    <t>咖啡與健康</t>
+    <t>咖啡与健康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%9B%A0%E8%88%87%E5%81%A5%E5%BA%B7</t>
   </si>
   <si>
-    <t>咖啡因與健康</t>
+    <t>咖啡因与健康</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_coffee</t>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%A8%82%E5%A3%93</t>
   </si>
   <si>
-    <t>愛樂壓</t>
+    <t>爱乐压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%BB%B4%E5%92%96%E5%95%A1</t>
@@ -1451,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%B3%96%E7%91%AA%E7%90%AA%E9%9B%85%E6%9C%B5</t>
   </si>
   <si>
-    <t>焦糖瑪琪雅朵</t>
+    <t>焦糖玛琪雅朵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B4%E9%A6%99%E9%85%92%E5%92%96%E5%95%A1</t>
@@ -1469,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>告爾多</t>
+    <t>告尔多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%86%B0%E6%A8%82</t>
   </si>
   <si>
-    <t>星冰樂</t>
+    <t>星冰乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%BB%B4%E6%BC%8F%E5%92%96%E5%95%A1</t>
@@ -1499,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%9C%BC%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>紅眼咖啡</t>
+    <t>红眼咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E6%9B%BF%E4%BB%A3%E5%93%81</t>
@@ -1511,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5%E8%8C%B6</t>
   </si>
   <si>
-    <t>大麥茶</t>
+    <t>大麦茶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%8A%E8%8B%A3</t>
@@ -1529,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%B8%AB</t>
   </si>
   <si>
-    <t>咖啡師</t>
+    <t>咖啡师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Caff%C3%A8</t>
@@ -1565,19 +1550,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%B0%8D%E5%81%A5%E5%BA%B7%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>咖啡對健康的影響</t>
+    <t>咖啡对健康的影响</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E5%92%96%E5%95%A1%E9%A4%A8</t>
   </si>
   <si>
-    <t>維也納咖啡館</t>
+    <t>维也纳咖啡馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1589,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -2253,7 +2238,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2282,7 +2267,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -2340,7 +2325,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -2369,7 +2354,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -6832,7 +6817,7 @@
         <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>158</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6858,10 +6843,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6887,10 +6872,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6916,10 +6901,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6945,10 +6930,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6974,10 +6959,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7003,10 +6988,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7032,10 +7017,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7061,10 +7046,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7090,10 +7075,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -7119,10 +7104,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7148,10 +7133,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7177,10 +7162,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7206,10 +7191,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>7</v>
@@ -7235,10 +7220,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7264,10 +7249,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7293,10 +7278,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7322,10 +7307,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7351,10 +7336,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7380,10 +7365,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -7409,10 +7394,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7438,10 +7423,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7467,10 +7452,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7496,10 +7481,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7525,10 +7510,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7554,10 +7539,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7583,10 +7568,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7612,10 +7597,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7641,10 +7626,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7670,10 +7655,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>94</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7699,10 +7684,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7728,10 +7713,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7757,10 +7742,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7786,10 +7771,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7815,10 +7800,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7844,10 +7829,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7873,10 +7858,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7902,10 +7887,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="G206" t="n">
         <v>5</v>
@@ -7931,10 +7916,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -7960,10 +7945,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7989,10 +7974,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G209" t="n">
         <v>8</v>
@@ -8018,10 +8003,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8047,10 +8032,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8076,10 +8061,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8105,10 +8090,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8163,10 +8148,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8192,10 +8177,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8221,10 +8206,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8250,10 +8235,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8279,10 +8264,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8308,10 +8293,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8337,10 +8322,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8366,10 +8351,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8395,10 +8380,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8424,10 +8409,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8453,10 +8438,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8482,10 +8467,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8511,10 +8496,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8569,10 +8554,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8598,10 +8583,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8627,10 +8612,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8656,10 +8641,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8685,10 +8670,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8714,10 +8699,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8743,10 +8728,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8772,10 +8757,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8801,10 +8786,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -8830,10 +8815,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8859,10 +8844,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>5</v>
@@ -8888,10 +8873,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8917,10 +8902,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8946,10 +8931,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -8975,10 +8960,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9004,10 +8989,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9033,10 +9018,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9062,10 +9047,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9091,10 +9076,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9120,10 +9105,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9149,10 +9134,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F249" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9178,10 +9163,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9207,10 +9192,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9236,10 +9221,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9265,10 +9250,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9294,10 +9279,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9323,10 +9308,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9352,10 +9337,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9381,10 +9366,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9410,10 +9395,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9439,10 +9424,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -9468,10 +9453,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9497,10 +9482,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9526,10 +9511,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -9555,10 +9540,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9584,10 +9569,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9613,10 +9598,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9642,10 +9627,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -9671,10 +9656,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9700,10 +9685,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>

--- a/xlsx/咖啡_intext.xlsx
+++ b/xlsx/咖啡_intext.xlsx
@@ -29,7 +29,7 @@
     <t>咖啡树</t>
   </si>
   <si>
-    <t>政策_政策_美國_咖啡</t>
+    <t>体育运动_体育运动_犹太人大屠杀_咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
@@ -2920,7 +2920,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
